--- a/data/trans_dic/P19C07-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C07-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P19C07-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C07-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,28%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>1,39; 13,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>0,0; 8,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,0</t>
+          <t>0,81; 7,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>0,0; 15,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,77</t>
+          <t>0,82; 6,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>2,28; 12,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,86</t>
+          <t>0,83; 7,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>1,58; 9,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>1,54; 7,35</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>1,68; 8,17</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>1,26; 5,55</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>1,81; 9,03</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,6%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>1,46; 4,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>2,38; 5,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>1,25; 4,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>2,34; 6,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>2,53; 6,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>1,84; 4,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>3,49; 7,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,24; 5,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>2,39; 4,84</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>2,45; 4,71</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>2,98; 5,67</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>2,56; 5,24</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,04%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>2,66; 5,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>1,83; 4,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>2,44; 5,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,49; 3,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>1,88; 4,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>3,22; 6,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>2,3; 4,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>2,68; 5,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>2,51; 4,39</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>2,87; 4,81</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>2,61; 4,4</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>2,29; 4,0</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,15%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>1,94; 4,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>2,33; 5,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>1,25; 3,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>3,3; 7,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>2,19; 5,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>1,21; 3,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>2,47; 5,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>3,35; 7,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>2,33; 4,47</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>1,94; 3,9</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>2,16; 4,23</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>3,71; 6,37</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,2%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>2,0; 4,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>2,4; 5,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>1,6; 3,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,37; 3,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>2,73; 5,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>2,68; 5,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>1,79; 4,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>2,9; 5,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>2,74; 4,71</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>2,85; 4,7</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>1,91; 3,57</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>2,49; 4,21</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,69%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>2,74; 4,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>2,72; 4,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>2,26; 3,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,59; 4,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>2,85; 4,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>2,98; 4,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>2,87; 4,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>3,34; 4,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>2,94; 3,99</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>2,99; 3,95</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>2,78; 3,78</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>3,19; 4,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C07-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C07-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>3,98%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,39; 13,61</t>
+          <t>2,05; 5,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,14</t>
+          <t>2,28; 5,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 7,48</t>
+          <t>1,55; 4,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,48</t>
+          <t>2,63; 7,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 6,81</t>
+          <t>2,39; 5,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,28; 12,78</t>
+          <t>2,23; 4,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,83; 7,9</t>
+          <t>3,34; 7,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 9,72</t>
+          <t>2,36; 5,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,54; 7,35</t>
+          <t>2,6; 4,77</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 8,17</t>
+          <t>2,55; 4,57</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 5,55</t>
+          <t>2,81; 5,03</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,81; 9,03</t>
+          <t>2,81; 5,82</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>2,78%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,46; 4,9</t>
+          <t>2,66; 5,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,38; 5,89</t>
+          <t>1,83; 4,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 4,86</t>
+          <t>2,44; 5,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 6,51</t>
+          <t>0,95; 3,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 6,13</t>
+          <t>1,88; 4,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,83</t>
+          <t>3,22; 6,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,49; 7,74</t>
+          <t>2,3; 4,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 5,6</t>
+          <t>2,67; 5,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,39; 4,84</t>
+          <t>2,51; 4,39</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,45; 4,71</t>
+          <t>2,87; 4,81</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,98; 5,67</t>
+          <t>2,61; 4,4</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,56; 5,24</t>
+          <t>1,78; 3,77</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -981,17 +981,17 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>4,78%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,66; 5,84</t>
+          <t>1,94; 4,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,83; 4,36</t>
+          <t>2,33; 5,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 5,29</t>
+          <t>1,25; 3,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 3,88</t>
+          <t>3,38; 7,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,11</t>
+          <t>2,19; 5,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,22; 6,24</t>
+          <t>1,21; 3,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 4,58</t>
+          <t>2,47; 5,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,68; 5,03</t>
+          <t>2,3; 6,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,51; 4,39</t>
+          <t>2,33; 4,47</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,87; 4,81</t>
+          <t>1,94; 3,9</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 4,4</t>
+          <t>2,16; 4,23</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,29; 4,0</t>
+          <t>2,91; 6,06</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>3,07%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 4,89</t>
+          <t>2,0; 4,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,52</t>
+          <t>2,4; 5,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,25; 3,72</t>
+          <t>1,6; 3,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,3; 7,33</t>
+          <t>1,34; 3,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,19; 5,3</t>
+          <t>2,73; 5,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,64</t>
+          <t>2,68; 5,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,47; 5,95</t>
+          <t>1,79; 4,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,35; 7,25</t>
+          <t>2,68; 5,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,33; 4,47</t>
+          <t>2,74; 4,71</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 3,9</t>
+          <t>2,85; 4,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,16; 4,23</t>
+          <t>1,91; 3,57</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,71; 6,37</t>
+          <t>2,36; 4,18</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>3,55%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,0; 4,5</t>
+          <t>2,74; 4,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,4; 5,1</t>
+          <t>2,72; 4,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,79</t>
+          <t>2,26; 3,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,5</t>
+          <t>2,35; 4,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,73; 5,77</t>
+          <t>2,85; 4,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,68; 5,3</t>
+          <t>2,98; 4,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,79; 4,1</t>
+          <t>2,87; 4,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,9; 5,58</t>
+          <t>3,03; 4,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,74; 4,71</t>
+          <t>2,94; 3,99</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,85; 4,7</t>
+          <t>2,99; 3,95</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,91; 3,57</t>
+          <t>2,78; 3,78</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,49; 4,21</t>
+          <t>2,92; 4,16</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>3,44%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,34%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,84%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>3,25%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>3,47%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>3,59%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>3,59%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>4,07%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>3,45%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>3,47%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>3,23%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>3,69%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>2,74; 4,21</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>2,72; 4,11</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2,26; 3,56</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>2,59; 4,15</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>2,85; 4,2</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>2,98; 4,4</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>2,87; 4,24</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>3,34; 4,76</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>2,94; 3,99</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>2,99; 3,95</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>2,78; 3,78</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>3,19; 4,23</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P19C07-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C07-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,05; 5,31</t>
+          <t>1,91; 5,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,28; 5,35</t>
+          <t>2,22; 5,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,45</t>
+          <t>1,55; 4,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,63; 7,99</t>
+          <t>2,56; 7,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,39; 5,5</t>
+          <t>2,36; 5,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,91</t>
+          <t>2,32; 5,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,34; 7,27</t>
+          <t>3,31; 7,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,36; 5,47</t>
+          <t>2,44; 5,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,6; 4,77</t>
+          <t>2,56; 4,89</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,55; 4,57</t>
+          <t>2,58; 4,64</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,03</t>
+          <t>2,82; 5,11</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,82</t>
+          <t>2,83; 5,75</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,66; 5,84</t>
+          <t>2,55; 5,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,83; 4,36</t>
+          <t>1,74; 4,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,44; 5,29</t>
+          <t>2,44; 5,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,84</t>
+          <t>1,02; 3,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,11</t>
+          <t>1,81; 4,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,22; 6,24</t>
+          <t>3,3; 6,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,3; 4,58</t>
+          <t>2,26; 4,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 5,1</t>
+          <t>2,69; 5,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,51; 4,39</t>
+          <t>2,51; 4,37</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,87; 4,81</t>
+          <t>2,88; 4,87</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 4,4</t>
+          <t>2,64; 4,5</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,78; 3,77</t>
+          <t>1,78; 3,81</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,94; 4,89</t>
+          <t>1,96; 5,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,52</t>
+          <t>2,33; 5,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 3,72</t>
+          <t>1,27; 3,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,38; 7,73</t>
+          <t>3,56; 7,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,19; 5,3</t>
+          <t>2,09; 5,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,64</t>
+          <t>1,24; 3,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,47; 5,95</t>
+          <t>2,52; 5,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 6,46</t>
+          <t>1,88; 6,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,33; 4,47</t>
+          <t>2,33; 4,53</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,94; 3,9</t>
+          <t>2,04; 3,99</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,16; 4,23</t>
+          <t>2,18; 4,29</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,91; 6,06</t>
+          <t>2,86; 6,2</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,0; 4,5</t>
+          <t>2,09; 4,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,4; 5,1</t>
+          <t>2,31; 5,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,79</t>
+          <t>1,61; 3,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,34; 3,48</t>
+          <t>1,38; 3,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,73; 5,77</t>
+          <t>2,76; 5,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,68; 5,3</t>
+          <t>2,68; 5,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,79; 4,1</t>
+          <t>1,88; 4,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,68; 5,32</t>
+          <t>2,65; 5,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,74; 4,71</t>
+          <t>2,71; 4,7</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,85; 4,7</t>
+          <t>2,87; 4,66</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,91; 3,57</t>
+          <t>1,98; 3,74</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,36; 4,18</t>
+          <t>2,3; 4,08</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,74; 4,21</t>
+          <t>2,7; 4,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,72; 4,11</t>
+          <t>2,68; 4,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,26; 3,56</t>
+          <t>2,24; 3,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,16</t>
+          <t>2,39; 4,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,85; 4,2</t>
+          <t>2,83; 4,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,98; 4,4</t>
+          <t>2,95; 4,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,87; 4,24</t>
+          <t>2,93; 4,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,03; 4,57</t>
+          <t>3,13; 4,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,94; 3,99</t>
+          <t>3,0; 4,01</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,99; 3,95</t>
+          <t>3,03; 3,97</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,78; 3,78</t>
+          <t>2,77; 3,72</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,92; 4,16</t>
+          <t>2,92; 4,19</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por ortodoncia</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>15894</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>21468</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>14108</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>26776</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>20006</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>22317</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>26750</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>23545</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>35900</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>43785</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>40859</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>50321</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>9114; 24762</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>13427; 31199</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8149; 22917</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>15627; 46106</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>12700; 30234</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>14747; 32101</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>18025; 38162</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>15873; 34834</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>26054; 49716</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>32010; 57583</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>30203; 54682</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>35781; 72651</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>28482</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>24580</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>29658</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>24378</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>22508</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>40809</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>28420</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>34345</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>50990</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>65389</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>58078</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>58723</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>18404; 39578</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>15123; 37290</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>19910; 43387</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>11947; 44181</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>14592; 32731</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>29654; 56909</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>19582; 39545</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>25341; 47156</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>38259; 66689</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>50912; 85982</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>44474; 75743</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>37635; 80327</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>17609</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>22947</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>12132</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>36472</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>20119</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>14628</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>23088</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>40390</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>37728</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>37576</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>35220</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>76862</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10707; 27433</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>14789; 34109</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7014; 20487</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>24411; 53120</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>12206; 30834</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>8421; 25021</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14628; 34475</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17380; 58312</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>26287; 51220</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>26811; 52436</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>24661; 48536</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>45922; 99751</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>22335</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>28399</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>19867</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>19893</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>32459</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>35185</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>24818</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>40078</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>54794</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>63585</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>44685</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>59972</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>14851; 33915</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>18626; 40891</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>12432; 29383</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>12307; 32029</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>22432; 44940</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>25029; 47588</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>16498; 36458</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>28195; 55490</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>41324; 71546</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>49909; 81080</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>32588; 61769</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>44985; 79693</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>84321</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>97394</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>75765</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>107520</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>95091</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>112940</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>103076</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>138358</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>179412</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>210334</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>178841</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>245878</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>66285; 103953</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>78057; 117722</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>59575; 96885</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>80315; 140899</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>77527; 117081</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>92956; 137195</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>84044; 123999</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>112051; 168116</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>156069; 208510</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>183513; 240628</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>153420; 205803</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>202167; 290346</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>